--- a/Excel Data Analytics/Pivot Tables.xlsx
+++ b/Excel Data Analytics/Pivot Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inseadedu-my.sharepoint.com/personal/aaklit_taneja_insead_edu/Documents/ML Stuff Personal/DataAnalysis/Excel Data Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE8FB18-0F1B-664F-A637-84CCB52786F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{4FE8FB18-0F1B-664F-A637-84CCB52786F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{37DD19FE-793D-A145-9FB4-5F5FF100406F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{B3A7A552-531F-3D43-9266-5D3CC14110A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{B3A7A552-531F-3D43-9266-5D3CC14110A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Data" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="Filters" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="NativeTimeline_Date">#N/A</definedName>
     <definedName name="Slicer_Months">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId6"/>
+    <pivotCache cacheId="21" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -34,6 +35,11 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId8"/>
+      </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -255,13 +261,25 @@
     <t>Its good for time, like january left to right, so lets add that</t>
   </si>
   <si>
+    <t>(All)</t>
+  </si>
+  <si>
     <t>Months</t>
   </si>
   <si>
-    <t>(Multiple Items)</t>
+    <t>You can add a slicer for easy filtering</t>
   </si>
   <si>
-    <t>You can add a slicer for easy filtering</t>
+    <t>Insert Timeline</t>
+  </si>
+  <si>
+    <t>More interactive control over table</t>
+  </si>
+  <si>
+    <t>To update a pivot table after changing a value on the data, you need to go to that table and click refresh</t>
+  </si>
+  <si>
+    <t>Power Pivot to merge multiple tables onto one</t>
   </si>
 </sst>
 </file>
@@ -387,7 +405,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9334500" y="520700"/>
+              <a:off x="9258300" y="520700"/>
               <a:ext cx="1828800" cy="2619372"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -418,11 +436,88 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Date">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9C7304-97CC-F34E-823D-03C24782316A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Date"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6324600" y="3937000"/>
+              <a:ext cx="5054600" cy="1587500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Timeline: Works in Excel 2013 or higher. Do not move or resize.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44323.789817939818" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="482" xr:uid="{22D4D09D-E630-5140-B394-026319A990B9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44325.388754629632" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="482" xr:uid="{22D4D09D-E630-5140-B394-026319A990B9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Expenses1"/>
   </cacheSource>
@@ -1161,253 +1256,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Amount" numFmtId="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="447" count="245">
-        <n v="50"/>
-        <n v="120"/>
-        <n v="10"/>
-        <n v="40"/>
-        <n v="129"/>
-        <n v="12"/>
-        <n v="14"/>
-        <n v="252"/>
-        <n v="44"/>
-        <n v="39"/>
-        <n v="20"/>
-        <n v="132"/>
-        <n v="79"/>
-        <n v="172"/>
-        <n v="8"/>
-        <n v="30"/>
-        <n v="271"/>
-        <n v="404"/>
-        <n v="212"/>
-        <n v="7"/>
-        <n v="123"/>
-        <n v="25"/>
-        <n v="69"/>
-        <n v="239"/>
-        <n v="177"/>
-        <n v="6"/>
-        <n v="322"/>
-        <n v="45"/>
-        <n v="133"/>
-        <n v="167"/>
-        <n v="367"/>
-        <n v="9"/>
-        <n v="315"/>
-        <n v="142"/>
-        <n v="368"/>
-        <n v="143"/>
-        <n v="294"/>
-        <n v="32"/>
-        <n v="234"/>
-        <n v="4"/>
-        <n v="15"/>
-        <n v="235"/>
-        <n v="175"/>
-        <n v="206"/>
-        <n v="3"/>
-        <n v="34"/>
-        <n v="99"/>
-        <n v="51"/>
-        <n v="261"/>
-        <n v="11"/>
-        <n v="1"/>
-        <n v="377"/>
-        <n v="326"/>
-        <n v="60"/>
-        <n v="248"/>
-        <n v="444"/>
-        <n v="139"/>
-        <n v="355"/>
-        <n v="428"/>
-        <n v="102"/>
-        <n v="65"/>
-        <n v="376"/>
-        <n v="183"/>
-        <n v="87"/>
-        <n v="161"/>
-        <n v="90"/>
-        <n v="107"/>
-        <n v="335"/>
-        <n v="16"/>
-        <n v="238"/>
-        <n v="42"/>
-        <n v="244"/>
-        <n v="160"/>
-        <n v="273"/>
-        <n v="327"/>
-        <n v="188"/>
-        <n v="104"/>
-        <n v="35"/>
-        <n v="210"/>
-        <n v="215"/>
-        <n v="31"/>
-        <n v="200"/>
-        <n v="314"/>
-        <n v="231"/>
-        <n v="241"/>
-        <n v="2"/>
-        <n v="63"/>
-        <n v="340"/>
-        <n v="338"/>
-        <n v="413"/>
-        <n v="216"/>
-        <n v="250"/>
-        <n v="164"/>
-        <n v="372"/>
-        <n v="94"/>
-        <n v="141"/>
-        <n v="23"/>
-        <n v="64"/>
-        <n v="217"/>
-        <n v="265"/>
-        <n v="307"/>
-        <n v="48"/>
-        <n v="13"/>
-        <n v="195"/>
-        <n v="442"/>
-        <n v="282"/>
-        <n v="149"/>
-        <n v="26"/>
-        <n v="199"/>
-        <n v="333"/>
-        <n v="18"/>
-        <n v="330"/>
-        <n v="136"/>
-        <n v="416"/>
-        <n v="213"/>
-        <n v="197"/>
-        <n v="384"/>
-        <n v="61"/>
-        <n v="5"/>
-        <n v="237"/>
-        <n v="297"/>
-        <n v="414"/>
-        <n v="381"/>
-        <n v="356"/>
-        <n v="320"/>
-        <n v="208"/>
-        <n v="198"/>
-        <n v="296"/>
-        <n v="21"/>
-        <n v="283"/>
-        <n v="432"/>
-        <n v="292"/>
-        <n v="92"/>
-        <n v="247"/>
-        <n v="299"/>
-        <n v="158"/>
-        <n v="125"/>
-        <n v="313"/>
-        <n v="424"/>
-        <n v="317"/>
-        <n v="284"/>
-        <n v="24"/>
-        <n v="276"/>
-        <n v="204"/>
-        <n v="52"/>
-        <n v="409"/>
-        <n v="80"/>
-        <n v="207"/>
-        <n v="379"/>
-        <n v="166"/>
-        <n v="109"/>
-        <n v="146"/>
-        <n v="223"/>
-        <n v="308"/>
-        <n v="256"/>
-        <n v="156"/>
-        <n v="380"/>
-        <n v="186"/>
-        <n v="135"/>
-        <n v="28"/>
-        <n v="361"/>
-        <n v="301"/>
-        <n v="27"/>
-        <n v="47"/>
-        <n v="67"/>
-        <n v="181"/>
-        <n v="329"/>
-        <n v="178"/>
-        <n v="145"/>
-        <n v="134"/>
-        <n v="324"/>
-        <n v="116"/>
-        <n v="17"/>
-        <n v="305"/>
-        <n v="203"/>
-        <n v="66"/>
-        <n v="84"/>
-        <n v="347"/>
-        <n v="348"/>
-        <n v="408"/>
-        <n v="22"/>
-        <n v="288"/>
-        <n v="357"/>
-        <n v="405"/>
-        <n v="278"/>
-        <n v="310"/>
-        <n v="397"/>
-        <n v="351"/>
-        <n v="363"/>
-        <n v="43"/>
-        <n v="447"/>
-        <n v="70"/>
-        <n v="334"/>
-        <n v="382"/>
-        <n v="112"/>
-        <n v="118"/>
-        <n v="96"/>
-        <n v="130"/>
-        <n v="246"/>
-        <n v="157"/>
-        <n v="152"/>
-        <n v="162"/>
-        <n v="328"/>
-        <n v="33"/>
-        <n v="262"/>
-        <n v="354"/>
-        <n v="300"/>
-        <n v="221"/>
-        <n v="263"/>
-        <n v="77"/>
-        <n v="418"/>
-        <n v="349"/>
-        <n v="410"/>
-        <n v="378"/>
-        <n v="108"/>
-        <n v="168"/>
-        <n v="82"/>
-        <n v="258"/>
-        <n v="127"/>
-        <n v="86"/>
-        <n v="422"/>
-        <n v="220"/>
-        <n v="78"/>
-        <n v="387"/>
-        <n v="325"/>
-        <n v="138"/>
-        <n v="332"/>
-        <n v="318"/>
-        <n v="259"/>
-        <n v="76"/>
-        <n v="128"/>
-        <n v="369"/>
-        <n v="103"/>
-        <n v="280"/>
-        <n v="286"/>
-        <n v="373"/>
-        <n v="395"/>
-        <n v="371"/>
-        <n v="420"/>
-        <n v="274"/>
-        <n v="302"/>
-        <n v="169"/>
-        <n v="165"/>
-        <n v="339"/>
-        <n v="243"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="447"/>
     </cacheField>
     <cacheField name="Months" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
@@ -1445,2899 +1294,2899 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="10"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="129"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="2"/>
+    <n v="129"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="252"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <x v="12"/>
     <x v="1"/>
     <x v="4"/>
-  </r>
-  <r>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="271"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="404"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="212"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
     <x v="4"/>
-    <x v="0"/>
-    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="123"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="239"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="177"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="322"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="133"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="167"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="367"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="315"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
     <x v="5"/>
-  </r>
-  <r>
+    <n v="142"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="368"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="143"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="294"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="322"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="234"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="235"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="175"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="206"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="261"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="377"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
     <x v="6"/>
-  </r>
-  <r>
+    <n v="326"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
     <x v="6"/>
-    <x v="2"/>
+    <n v="248"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="444"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="139"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="355"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
     <x v="3"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="428"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="1"/>
     <x v="4"/>
-  </r>
-  <r>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="0"/>
     <x v="6"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="252"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="183"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="161"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="12"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="123"/>
+  </r>
+  <r>
+    <x v="69"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="261"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="129"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="335"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="1"/>
     <x v="5"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="238"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="244"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="160"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="273"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="2"/>
+    <n v="327"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="188"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="215"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="238"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="314"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="231"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="241"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="1"/>
     <x v="4"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="22"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="338"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="413"/>
+  </r>
+  <r>
+    <x v="93"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="322"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="2"/>
     <x v="4"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="216"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="183"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="314"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="314"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="164"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="372"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="1"/>
     <x v="3"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="29"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="141"/>
+  </r>
+  <r>
+    <x v="104"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="2"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="0"/>
     <x v="3"/>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="38"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="129"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="217"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="265"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="307"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="143"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="45"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="112"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="294"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="195"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="442"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="282"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="149"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="199"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="333"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="330"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="136"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="416"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="213"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="265"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="197"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="384"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="273"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="175"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="123"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="237"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="297"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="414"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="381"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="356"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="320"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="208"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="198"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="0"/>
     <x v="5"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="1"/>
+    <n v="296"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="283"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="432"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="292"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="247"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="2"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="1"/>
     <x v="4"/>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="50"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="51"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="2"/>
     <x v="6"/>
-    <x v="52"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <x v="0"/>
+    <n v="299"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="158"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="2"/>
     <x v="6"/>
-    <x v="54"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="55"/>
-  </r>
-  <r>
-    <x v="57"/>
+    <n v="125"/>
+  </r>
+  <r>
+    <x v="160"/>
     <x v="0"/>
     <x v="6"/>
-    <x v="56"/>
-  </r>
-  <r>
-    <x v="57"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <x v="2"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="313"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="1"/>
     <x v="6"/>
-    <x v="57"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <x v="0"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="424"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="317"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="284"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="58"/>
-  </r>
-  <r>
-    <x v="60"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="276"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="204"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="409"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="315"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="207"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="188"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="379"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="166"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="142"/>
+  </r>
+  <r>
+    <x v="176"/>
     <x v="1"/>
     <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="109"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="146"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="223"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="308"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="256"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="0"/>
     <x v="5"/>
-  </r>
-  <r>
-    <x v="61"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="186"/>
+  </r>
+  <r>
+    <x v="183"/>
     <x v="0"/>
     <x v="6"/>
-    <x v="59"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="60"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="63"/>
+    <n v="135"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="139"/>
+  </r>
+  <r>
+    <x v="185"/>
     <x v="0"/>
     <x v="6"/>
-    <x v="61"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="62"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="66"/>
+    <n v="361"/>
+  </r>
+  <r>
+    <x v="186"/>
     <x v="0"/>
     <x v="6"/>
-    <x v="63"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <x v="1"/>
+    <n v="301"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="0"/>
     <x v="6"/>
-    <x v="64"/>
-  </r>
-  <r>
-    <x v="67"/>
-    <x v="2"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="181"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="329"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <x v="1"/>
     <x v="3"/>
-    <x v="65"/>
-  </r>
-  <r>
-    <x v="68"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="69"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="178"/>
+  </r>
+  <r>
+    <x v="192"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="69"/>
-    <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <x v="0"/>
     <x v="6"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="70"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="145"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="134"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="204"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="324"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="116"/>
+  </r>
+  <r>
+    <x v="199"/>
+    <x v="2"/>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="66"/>
-  </r>
-  <r>
-    <x v="72"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="200"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="202"/>
     <x v="2"/>
     <x v="6"/>
+    <n v="212"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="305"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="203"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="207"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="347"/>
+  </r>
+  <r>
+    <x v="208"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="432"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="348"/>
+  </r>
+  <r>
+    <x v="210"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="164"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="368"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="408"/>
+  </r>
+  <r>
+    <x v="213"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="143"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="317"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="288"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="357"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="305"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="405"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="278"/>
+  </r>
+  <r>
+    <x v="220"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="125"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <x v="1"/>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="72"/>
-    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <x v="1"/>
     <x v="6"/>
-    <x v="67"/>
-  </r>
-  <r>
-    <x v="73"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="74"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <x v="1"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <x v="222"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="223"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="310"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="226"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="397"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="351"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="229"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="167"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="363"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="308"/>
+  </r>
+  <r>
+    <x v="231"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="232"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="447"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="234"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="235"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="241"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="237"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="334"/>
+  </r>
+  <r>
+    <x v="238"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="239"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="382"/>
+  </r>
+  <r>
+    <x v="239"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="112"/>
+  </r>
+  <r>
+    <x v="240"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="241"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <x v="242"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="242"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <x v="243"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="244"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="245"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="245"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="246"/>
+  </r>
+  <r>
+    <x v="246"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="247"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="157"/>
+  </r>
+  <r>
+    <x v="248"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <x v="248"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="152"/>
+  </r>
+  <r>
+    <x v="249"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="250"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="162"/>
+  </r>
+  <r>
+    <x v="251"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="367"/>
+  </r>
+  <r>
+    <x v="251"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="252"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="368"/>
+  </r>
+  <r>
+    <x v="253"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="351"/>
+  </r>
+  <r>
+    <x v="254"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="328"/>
+  </r>
+  <r>
+    <x v="254"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="255"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="262"/>
+  </r>
+  <r>
+    <x v="256"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="354"/>
+  </r>
+  <r>
+    <x v="257"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="257"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <x v="258"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="221"/>
+  </r>
+  <r>
+    <x v="259"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="263"/>
+  </r>
+  <r>
+    <x v="260"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="260"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="261"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="418"/>
+  </r>
+  <r>
+    <x v="262"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="349"/>
+  </r>
+  <r>
+    <x v="263"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="410"/>
+  </r>
+  <r>
+    <x v="263"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="378"/>
+  </r>
+  <r>
+    <x v="264"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="265"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="408"/>
+  </r>
+  <r>
+    <x v="266"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="266"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <x v="267"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="168"/>
+  </r>
+  <r>
+    <x v="268"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="269"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="269"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="258"/>
+  </r>
+  <r>
+    <x v="270"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="271"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="146"/>
+  </r>
+  <r>
+    <x v="272"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="272"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="127"/>
+  </r>
+  <r>
+    <x v="273"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="274"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="275"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="275"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="432"/>
+  </r>
+  <r>
+    <x v="276"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="277"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="271"/>
+  </r>
+  <r>
+    <x v="278"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="422"/>
+  </r>
+  <r>
+    <x v="278"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="279"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <x v="280"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="281"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="281"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="282"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="387"/>
+  </r>
+  <r>
+    <x v="283"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="325"/>
+  </r>
+  <r>
+    <x v="284"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="284"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="138"/>
+  </r>
+  <r>
+    <x v="285"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="286"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="332"/>
+  </r>
+  <r>
+    <x v="287"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="287"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="318"/>
+  </r>
+  <r>
+    <x v="288"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="289"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="354"/>
+  </r>
+  <r>
+    <x v="290"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="290"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="259"/>
+  </r>
+  <r>
+    <x v="291"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="292"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="128"/>
+  </r>
+  <r>
+    <x v="293"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="293"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="294"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="369"/>
+  </r>
+  <r>
+    <x v="295"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="296"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="284"/>
+  </r>
+  <r>
+    <x v="296"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="297"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="298"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="280"/>
+  </r>
+  <r>
+    <x v="299"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="300"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="301"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="68"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <x v="2"/>
+    <n v="252"/>
+  </r>
+  <r>
+    <x v="302"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="303"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="308"/>
+  </r>
+  <r>
+    <x v="304"/>
+    <x v="1"/>
     <x v="5"/>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <x v="2"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="304"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="134"/>
+  </r>
+  <r>
+    <x v="305"/>
+    <x v="0"/>
     <x v="5"/>
-    <x v="69"/>
-  </r>
-  <r>
-    <x v="75"/>
+    <n v="282"/>
+  </r>
+  <r>
+    <x v="305"/>
     <x v="2"/>
     <x v="5"/>
-    <x v="70"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="71"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="76"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="72"/>
-  </r>
-  <r>
-    <x v="77"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="73"/>
-  </r>
-  <r>
-    <x v="78"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="59"/>
-  </r>
-  <r>
-    <x v="78"/>
-    <x v="2"/>
+    <n v="286"/>
+  </r>
+  <r>
+    <x v="306"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="198"/>
+  </r>
+  <r>
+    <x v="307"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="308"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="309"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="239"/>
+  </r>
+  <r>
+    <x v="310"/>
+    <x v="0"/>
     <x v="3"/>
-    <x v="74"/>
-  </r>
-  <r>
-    <x v="79"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="75"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="76"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="77"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="78"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <x v="2"/>
-    <x v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="311"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="181"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="313"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="373"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="395"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="238"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="371"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="157"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="348"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="238"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="2"/>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="79"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <x v="0"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="420"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="274"/>
+  </r>
+  <r>
+    <x v="326"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="424"/>
+  </r>
+  <r>
+    <x v="326"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="248"/>
+  </r>
+  <r>
+    <x v="327"/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="80"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="81"/>
-  </r>
-  <r>
-    <x v="85"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="69"/>
-  </r>
-  <r>
-    <x v="86"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="82"/>
-  </r>
-  <r>
-    <x v="87"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="83"/>
-  </r>
-  <r>
-    <x v="87"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="84"/>
-  </r>
-  <r>
-    <x v="88"/>
+    <n v="305"/>
+  </r>
+  <r>
+    <x v="328"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="330"/>
+  </r>
+  <r>
+    <x v="329"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="85"/>
-  </r>
-  <r>
-    <x v="89"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="89"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="86"/>
-  </r>
-  <r>
-    <x v="90"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="90"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="87"/>
-  </r>
-  <r>
-    <x v="91"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="88"/>
-  </r>
-  <r>
-    <x v="92"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="89"/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="94"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="95"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="90"/>
-  </r>
-  <r>
-    <x v="96"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="96"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="62"/>
-  </r>
-  <r>
-    <x v="97"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="97"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="91"/>
-  </r>
-  <r>
-    <x v="98"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="82"/>
-  </r>
-  <r>
-    <x v="99"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="99"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="82"/>
-  </r>
-  <r>
-    <x v="100"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="92"/>
-  </r>
-  <r>
-    <x v="101"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="93"/>
-  </r>
-  <r>
-    <x v="102"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="102"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="94"/>
-  </r>
-  <r>
-    <x v="102"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="103"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="95"/>
-  </r>
-  <r>
-    <x v="104"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="105"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="329"/>
     <x v="2"/>
     <x v="5"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="97"/>
-  </r>
-  <r>
-    <x v="106"/>
-    <x v="0"/>
+    <n v="302"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="169"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <x v="106"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="99"/>
-  </r>
-  <r>
-    <x v="106"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="100"/>
-  </r>
-  <r>
-    <x v="106"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="107"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="108"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="108"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="109"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="110"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="111"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="111"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="111"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="112"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="113"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="114"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="114"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="115"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="116"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="101"/>
-  </r>
-  <r>
-    <x v="117"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="117"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="102"/>
-  </r>
-  <r>
-    <x v="118"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="103"/>
-  </r>
-  <r>
-    <x v="119"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="119"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="120"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <x v="120"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="105"/>
-  </r>
-  <r>
-    <x v="121"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="77"/>
-  </r>
-  <r>
-    <x v="122"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="123"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="106"/>
-  </r>
-  <r>
-    <x v="124"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="107"/>
-  </r>
-  <r>
-    <x v="125"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="126"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="108"/>
-  </r>
-  <r>
-    <x v="127"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <x v="127"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="110"/>
-  </r>
-  <r>
-    <x v="128"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="129"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="111"/>
-  </r>
-  <r>
-    <x v="130"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="112"/>
-  </r>
-  <r>
-    <x v="130"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="113"/>
-  </r>
-  <r>
-    <x v="131"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="114"/>
-  </r>
-  <r>
-    <x v="132"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="99"/>
-  </r>
-  <r>
-    <x v="133"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="133"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="115"/>
-  </r>
-  <r>
-    <x v="134"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="135"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="116"/>
-  </r>
-  <r>
-    <x v="136"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="136"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="117"/>
-  </r>
-  <r>
-    <x v="136"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="73"/>
-  </r>
-  <r>
-    <x v="137"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="118"/>
-  </r>
-  <r>
-    <x v="138"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="139"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="139"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="140"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="141"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="119"/>
-  </r>
-  <r>
-    <x v="142"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="142"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="142"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="120"/>
-  </r>
-  <r>
-    <x v="143"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="144"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="121"/>
-  </r>
-  <r>
-    <x v="145"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="122"/>
-  </r>
-  <r>
-    <x v="145"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="123"/>
-  </r>
-  <r>
-    <x v="146"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="124"/>
-  </r>
-  <r>
-    <x v="147"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="148"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="125"/>
-  </r>
-  <r>
-    <x v="148"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="149"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="126"/>
-  </r>
-  <r>
-    <x v="150"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="77"/>
-  </r>
-  <r>
-    <x v="150"/>
+    <n v="165"/>
+  </r>
+  <r>
+    <x v="332"/>
     <x v="0"/>
     <x v="5"/>
-    <x v="127"/>
-  </r>
-  <r>
-    <x v="150"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="150"/>
+    <n v="212"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="432"/>
+  </r>
+  <r>
+    <x v="335"/>
     <x v="2"/>
     <x v="5"/>
-    <x v="102"/>
-  </r>
-  <r>
-    <x v="150"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="128"/>
-  </r>
-  <r>
-    <x v="151"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="129"/>
-  </r>
-  <r>
-    <x v="151"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="130"/>
-  </r>
-  <r>
-    <x v="152"/>
-    <x v="1"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="335"/>
     <x v="0"/>
     <x v="5"/>
-  </r>
-  <r>
-    <x v="153"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="131"/>
-  </r>
-  <r>
-    <x v="154"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="132"/>
-  </r>
-  <r>
-    <x v="154"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="133"/>
-  </r>
-  <r>
-    <x v="155"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="156"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="156"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="157"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="97"/>
-  </r>
-  <r>
-    <x v="157"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="134"/>
-  </r>
-  <r>
-    <x v="158"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="159"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="135"/>
-  </r>
-  <r>
-    <x v="160"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="136"/>
-  </r>
-  <r>
-    <x v="160"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="60"/>
-  </r>
-  <r>
-    <x v="161"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="162"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="137"/>
-  </r>
-  <r>
-    <x v="163"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="163"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="66"/>
-  </r>
-  <r>
-    <x v="163"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="164"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="138"/>
-  </r>
-  <r>
-    <x v="165"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="139"/>
-  </r>
-  <r>
-    <x v="166"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="118"/>
-  </r>
-  <r>
-    <x v="166"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="140"/>
-  </r>
-  <r>
-    <x v="166"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="141"/>
-  </r>
-  <r>
-    <x v="167"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="142"/>
-  </r>
-  <r>
-    <x v="168"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="143"/>
-  </r>
-  <r>
-    <x v="169"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="144"/>
-  </r>
-  <r>
-    <x v="169"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="145"/>
-  </r>
-  <r>
-    <x v="170"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="146"/>
-  </r>
-  <r>
-    <x v="171"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="172"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="172"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="172"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="147"/>
-  </r>
-  <r>
-    <x v="173"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="75"/>
-  </r>
-  <r>
-    <x v="174"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="148"/>
-  </r>
-  <r>
-    <x v="175"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="149"/>
-  </r>
-  <r>
-    <x v="175"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="176"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="50"/>
-  </r>
-  <r>
-    <x v="177"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="150"/>
-  </r>
-  <r>
-    <x v="178"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="178"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="151"/>
-  </r>
-  <r>
-    <x v="179"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="152"/>
-  </r>
-  <r>
-    <x v="180"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="153"/>
-  </r>
-  <r>
-    <x v="181"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="181"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="154"/>
-  </r>
-  <r>
-    <x v="182"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="182"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="183"/>
-    <x v="0"/>
+    <n v="339"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="155"/>
-  </r>
-  <r>
-    <x v="183"/>
+    <n v="243"/>
+  </r>
+  <r>
+    <x v="337"/>
     <x v="0"/>
     <x v="5"/>
-    <x v="156"/>
-  </r>
-  <r>
-    <x v="183"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="157"/>
-  </r>
-  <r>
-    <x v="183"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="158"/>
-  </r>
-  <r>
-    <x v="184"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="159"/>
-  </r>
-  <r>
-    <x v="184"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="56"/>
-  </r>
-  <r>
-    <x v="185"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="160"/>
-  </r>
-  <r>
-    <x v="186"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="161"/>
-  </r>
-  <r>
-    <x v="187"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="162"/>
-  </r>
-  <r>
-    <x v="187"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="163"/>
-  </r>
-  <r>
-    <x v="188"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="188"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="164"/>
-  </r>
-  <r>
-    <x v="189"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="165"/>
-  </r>
-  <r>
-    <x v="190"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="166"/>
-  </r>
-  <r>
-    <x v="190"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="118"/>
-  </r>
-  <r>
-    <x v="191"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="167"/>
-  </r>
-  <r>
-    <x v="192"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="85"/>
-  </r>
-  <r>
-    <x v="193"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="168"/>
-  </r>
-  <r>
-    <x v="193"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="194"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="169"/>
-  </r>
-  <r>
-    <x v="195"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="195"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="143"/>
-  </r>
-  <r>
-    <x v="196"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="162"/>
-  </r>
-  <r>
-    <x v="196"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="87"/>
-  </r>
-  <r>
-    <x v="197"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="197"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="170"/>
-  </r>
-  <r>
-    <x v="198"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="171"/>
-  </r>
-  <r>
-    <x v="199"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="200"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="201"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="118"/>
-  </r>
-  <r>
-    <x v="202"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="203"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="203"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="172"/>
-  </r>
-  <r>
-    <x v="203"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="173"/>
-  </r>
-  <r>
-    <x v="204"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="174"/>
-  </r>
-  <r>
-    <x v="205"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="175"/>
-  </r>
-  <r>
-    <x v="206"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="172"/>
-  </r>
-  <r>
-    <x v="206"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="176"/>
-  </r>
-  <r>
-    <x v="207"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="177"/>
-  </r>
-  <r>
-    <x v="208"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="110"/>
-  </r>
-  <r>
-    <x v="209"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="130"/>
-  </r>
-  <r>
-    <x v="209"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="178"/>
-  </r>
-  <r>
-    <x v="210"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="92"/>
-  </r>
-  <r>
-    <x v="211"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="211"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="212"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="212"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="179"/>
-  </r>
-  <r>
-    <x v="213"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="214"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="128"/>
-  </r>
-  <r>
-    <x v="214"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="180"/>
-  </r>
-  <r>
-    <x v="214"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="214"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="139"/>
-  </r>
-  <r>
-    <x v="215"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="70"/>
-  </r>
-  <r>
-    <x v="215"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="181"/>
-  </r>
-  <r>
-    <x v="216"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="217"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="182"/>
-  </r>
-  <r>
-    <x v="218"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="173"/>
-  </r>
-  <r>
-    <x v="218"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="183"/>
-  </r>
-  <r>
-    <x v="219"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="219"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="184"/>
-  </r>
-  <r>
-    <x v="220"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="136"/>
-  </r>
-  <r>
-    <x v="221"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="221"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="155"/>
-  </r>
-  <r>
-    <x v="222"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="223"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="185"/>
-  </r>
-  <r>
-    <x v="224"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="224"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="110"/>
-  </r>
-  <r>
-    <x v="225"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="226"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="186"/>
-  </r>
-  <r>
-    <x v="227"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="227"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="187"/>
-  </r>
-  <r>
-    <x v="228"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="229"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="230"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="188"/>
-  </r>
-  <r>
-    <x v="230"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="153"/>
-  </r>
-  <r>
-    <x v="231"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="189"/>
-  </r>
-  <r>
-    <x v="232"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <x v="233"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="190"/>
-  </r>
-  <r>
-    <x v="233"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="191"/>
-  </r>
-  <r>
-    <x v="234"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="235"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="118"/>
-  </r>
-  <r>
-    <x v="236"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="84"/>
-  </r>
-  <r>
-    <x v="236"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="118"/>
-  </r>
-  <r>
-    <x v="237"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="192"/>
-  </r>
-  <r>
-    <x v="238"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="68"/>
-  </r>
-  <r>
-    <x v="239"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="193"/>
-  </r>
-  <r>
-    <x v="239"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="194"/>
-  </r>
-  <r>
-    <x v="240"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="241"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="195"/>
-  </r>
-  <r>
-    <x v="242"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="196"/>
-  </r>
-  <r>
-    <x v="242"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="197"/>
-  </r>
-  <r>
-    <x v="243"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="244"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="245"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="245"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="198"/>
-  </r>
-  <r>
-    <x v="246"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="247"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="199"/>
-  </r>
-  <r>
-    <x v="248"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="248"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="200"/>
-  </r>
-  <r>
-    <x v="249"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="110"/>
-  </r>
-  <r>
-    <x v="250"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="201"/>
-  </r>
-  <r>
-    <x v="251"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="251"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="252"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="253"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="187"/>
-  </r>
-  <r>
-    <x v="254"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="202"/>
-  </r>
-  <r>
-    <x v="254"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="203"/>
-  </r>
-  <r>
-    <x v="255"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="204"/>
-  </r>
-  <r>
-    <x v="256"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="205"/>
-  </r>
-  <r>
-    <x v="257"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="257"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="206"/>
-  </r>
-  <r>
-    <x v="258"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="207"/>
-  </r>
-  <r>
-    <x v="259"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="208"/>
-  </r>
-  <r>
-    <x v="260"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="260"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="209"/>
-  </r>
-  <r>
-    <x v="261"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="210"/>
-  </r>
-  <r>
-    <x v="262"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="211"/>
-  </r>
-  <r>
-    <x v="263"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="212"/>
-  </r>
-  <r>
-    <x v="263"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="213"/>
-  </r>
-  <r>
-    <x v="264"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="85"/>
-  </r>
-  <r>
-    <x v="265"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="179"/>
-  </r>
-  <r>
-    <x v="266"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="266"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="214"/>
-  </r>
-  <r>
-    <x v="267"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="215"/>
-  </r>
-  <r>
-    <x v="268"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="216"/>
-  </r>
-  <r>
-    <x v="269"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="269"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="217"/>
-  </r>
-  <r>
-    <x v="270"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="118"/>
-  </r>
-  <r>
-    <x v="271"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="151"/>
-  </r>
-  <r>
-    <x v="272"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="272"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="218"/>
-  </r>
-  <r>
-    <x v="273"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="219"/>
-  </r>
-  <r>
-    <x v="274"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="275"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="80"/>
-  </r>
-  <r>
-    <x v="275"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="130"/>
-  </r>
-  <r>
-    <x v="276"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="277"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="278"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="220"/>
-  </r>
-  <r>
-    <x v="278"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="118"/>
-  </r>
-  <r>
-    <x v="279"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="221"/>
-  </r>
-  <r>
-    <x v="280"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="281"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="222"/>
-  </r>
-  <r>
-    <x v="281"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="282"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="223"/>
-  </r>
-  <r>
-    <x v="283"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="224"/>
-  </r>
-  <r>
-    <x v="284"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="284"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="225"/>
-  </r>
-  <r>
-    <x v="285"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="117"/>
-  </r>
-  <r>
-    <x v="286"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="226"/>
-  </r>
-  <r>
-    <x v="287"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="162"/>
-  </r>
-  <r>
-    <x v="287"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="227"/>
-  </r>
-  <r>
-    <x v="288"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="85"/>
-  </r>
-  <r>
-    <x v="289"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="205"/>
-  </r>
-  <r>
-    <x v="290"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="159"/>
-  </r>
-  <r>
-    <x v="290"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="228"/>
-  </r>
-  <r>
-    <x v="291"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="229"/>
-  </r>
-  <r>
-    <x v="292"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="230"/>
-  </r>
-  <r>
-    <x v="293"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="128"/>
-  </r>
-  <r>
-    <x v="293"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="294"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="231"/>
-  </r>
-  <r>
-    <x v="295"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="296"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="140"/>
-  </r>
-  <r>
-    <x v="296"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="232"/>
-  </r>
-  <r>
-    <x v="297"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="298"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="233"/>
-  </r>
-  <r>
-    <x v="299"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="68"/>
-  </r>
-  <r>
-    <x v="300"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="59"/>
-  </r>
-  <r>
-    <x v="301"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="302"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="303"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="153"/>
-  </r>
-  <r>
-    <x v="304"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="66"/>
-  </r>
-  <r>
-    <x v="304"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="169"/>
-  </r>
-  <r>
-    <x v="305"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="105"/>
-  </r>
-  <r>
-    <x v="305"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="234"/>
-  </r>
-  <r>
-    <x v="306"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="126"/>
-  </r>
-  <r>
-    <x v="307"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="308"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="110"/>
-  </r>
-  <r>
-    <x v="309"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="310"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="311"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="165"/>
-  </r>
-  <r>
-    <x v="312"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="313"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="314"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="235"/>
-  </r>
-  <r>
-    <x v="315"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="316"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="236"/>
-  </r>
-  <r>
-    <x v="317"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="69"/>
-  </r>
-  <r>
-    <x v="318"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="237"/>
-  </r>
-  <r>
-    <x v="319"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="320"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="199"/>
-  </r>
-  <r>
-    <x v="321"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="178"/>
-  </r>
-  <r>
-    <x v="321"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="69"/>
-  </r>
-  <r>
-    <x v="322"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="323"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="238"/>
-  </r>
-  <r>
-    <x v="324"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="118"/>
-  </r>
-  <r>
-    <x v="325"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="239"/>
-  </r>
-  <r>
-    <x v="326"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="138"/>
-  </r>
-  <r>
-    <x v="326"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="54"/>
-  </r>
-  <r>
-    <x v="327"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="173"/>
-  </r>
-  <r>
-    <x v="328"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="111"/>
-  </r>
-  <r>
-    <x v="329"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="329"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="240"/>
-  </r>
-  <r>
-    <x v="330"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="110"/>
-  </r>
-  <r>
-    <x v="331"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="241"/>
-  </r>
-  <r>
-    <x v="332"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="242"/>
-  </r>
-  <r>
-    <x v="332"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="333"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="180"/>
-  </r>
-  <r>
-    <x v="334"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="130"/>
-  </r>
-  <r>
-    <x v="335"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="107"/>
-  </r>
-  <r>
-    <x v="335"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="243"/>
-  </r>
-  <r>
-    <x v="336"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="244"/>
-  </r>
-  <r>
-    <x v="337"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="216"/>
+    <n v="82"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{662C5B27-2CBD-A548-BFFD-7EFC6162871A}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{662C5B27-2CBD-A548-BFFD-7EFC6162871A}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField numFmtId="16" showAll="0">
@@ -4714,268 +4563,8 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="6" showAll="0">
-      <items count="246">
-        <item x="50"/>
-        <item x="85"/>
-        <item x="44"/>
-        <item x="39"/>
-        <item x="118"/>
-        <item x="25"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="31"/>
-        <item x="2"/>
-        <item x="49"/>
-        <item x="5"/>
-        <item x="102"/>
-        <item x="6"/>
-        <item x="40"/>
-        <item x="68"/>
-        <item x="172"/>
-        <item x="110"/>
-        <item x="10"/>
-        <item x="128"/>
-        <item x="180"/>
-        <item x="96"/>
-        <item x="141"/>
-        <item x="21"/>
-        <item x="107"/>
-        <item x="162"/>
-        <item x="159"/>
-        <item x="15"/>
-        <item x="80"/>
-        <item x="37"/>
-        <item x="203"/>
-        <item x="45"/>
-        <item x="77"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="70"/>
-        <item x="189"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="163"/>
-        <item x="101"/>
-        <item x="0"/>
-        <item x="47"/>
-        <item x="144"/>
-        <item x="53"/>
-        <item x="117"/>
-        <item x="86"/>
-        <item x="97"/>
-        <item x="60"/>
-        <item x="175"/>
-        <item x="164"/>
-        <item x="22"/>
-        <item x="191"/>
-        <item x="229"/>
-        <item x="209"/>
-        <item x="222"/>
-        <item x="12"/>
-        <item x="146"/>
-        <item x="216"/>
-        <item x="176"/>
-        <item x="219"/>
-        <item x="63"/>
-        <item x="65"/>
-        <item x="132"/>
-        <item x="94"/>
-        <item x="196"/>
-        <item x="46"/>
-        <item x="59"/>
-        <item x="232"/>
-        <item x="76"/>
-        <item x="66"/>
-        <item x="214"/>
-        <item x="150"/>
-        <item x="194"/>
-        <item x="171"/>
-        <item x="195"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="136"/>
-        <item x="218"/>
-        <item x="230"/>
-        <item x="4"/>
-        <item x="197"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="169"/>
-        <item x="158"/>
-        <item x="112"/>
-        <item x="225"/>
-        <item x="56"/>
-        <item x="95"/>
-        <item x="33"/>
-        <item x="35"/>
-        <item x="168"/>
-        <item x="151"/>
-        <item x="106"/>
-        <item x="200"/>
-        <item x="155"/>
-        <item x="199"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="64"/>
-        <item x="201"/>
-        <item x="92"/>
-        <item x="242"/>
-        <item x="149"/>
-        <item x="29"/>
-        <item x="215"/>
-        <item x="241"/>
-        <item x="13"/>
-        <item x="42"/>
-        <item x="24"/>
-        <item x="167"/>
-        <item x="165"/>
-        <item x="62"/>
-        <item x="157"/>
-        <item x="75"/>
-        <item x="103"/>
-        <item x="115"/>
-        <item x="126"/>
-        <item x="108"/>
-        <item x="81"/>
-        <item x="174"/>
-        <item x="143"/>
-        <item x="43"/>
-        <item x="147"/>
-        <item x="125"/>
-        <item x="78"/>
-        <item x="18"/>
-        <item x="114"/>
-        <item x="79"/>
-        <item x="90"/>
-        <item x="98"/>
-        <item x="221"/>
-        <item x="207"/>
-        <item x="152"/>
-        <item x="83"/>
-        <item x="38"/>
-        <item x="41"/>
-        <item x="119"/>
-        <item x="69"/>
-        <item x="23"/>
-        <item x="84"/>
-        <item x="244"/>
-        <item x="71"/>
-        <item x="198"/>
-        <item x="133"/>
-        <item x="54"/>
-        <item x="91"/>
-        <item x="7"/>
-        <item x="154"/>
-        <item x="217"/>
-        <item x="228"/>
-        <item x="48"/>
-        <item x="204"/>
-        <item x="208"/>
-        <item x="99"/>
-        <item x="16"/>
-        <item x="73"/>
-        <item x="239"/>
-        <item x="142"/>
-        <item x="184"/>
-        <item x="233"/>
-        <item x="105"/>
-        <item x="129"/>
-        <item x="140"/>
-        <item x="234"/>
-        <item x="181"/>
-        <item x="131"/>
-        <item x="36"/>
-        <item x="127"/>
-        <item x="120"/>
-        <item x="134"/>
-        <item x="206"/>
-        <item x="161"/>
-        <item x="240"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="153"/>
-        <item x="185"/>
-        <item x="137"/>
-        <item x="82"/>
-        <item x="32"/>
-        <item x="139"/>
-        <item x="227"/>
-        <item x="124"/>
-        <item x="26"/>
-        <item x="170"/>
-        <item x="224"/>
-        <item x="52"/>
-        <item x="74"/>
-        <item x="202"/>
-        <item x="166"/>
-        <item x="111"/>
-        <item x="226"/>
-        <item x="109"/>
-        <item x="192"/>
-        <item x="67"/>
-        <item x="88"/>
-        <item x="243"/>
-        <item x="87"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="211"/>
-        <item x="187"/>
-        <item x="205"/>
-        <item x="57"/>
-        <item x="123"/>
-        <item x="182"/>
-        <item x="160"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="34"/>
-        <item x="231"/>
-        <item x="237"/>
-        <item x="93"/>
-        <item x="235"/>
-        <item x="61"/>
-        <item x="51"/>
-        <item x="213"/>
-        <item x="148"/>
-        <item x="156"/>
-        <item x="122"/>
-        <item x="193"/>
-        <item x="116"/>
-        <item x="223"/>
-        <item x="236"/>
-        <item x="186"/>
-        <item x="17"/>
-        <item x="183"/>
-        <item x="179"/>
-        <item x="145"/>
-        <item x="212"/>
-        <item x="89"/>
-        <item x="121"/>
-        <item x="113"/>
-        <item x="210"/>
-        <item x="238"/>
-        <item x="220"/>
-        <item x="138"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="104"/>
-        <item x="55"/>
-        <item x="190"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
         <item x="0"/>
@@ -5027,7 +4616,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2526E9F-568C-3A48-9411-49F31A2C8418}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2526E9F-568C-3A48-9411-49F31A2C8418}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A13:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="16" showAll="0">
@@ -5423,256 +5012,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="6" showAll="0">
-      <items count="246">
-        <item x="50"/>
-        <item x="85"/>
-        <item x="44"/>
-        <item x="39"/>
-        <item x="118"/>
-        <item x="25"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="31"/>
-        <item x="2"/>
-        <item x="49"/>
-        <item x="5"/>
-        <item x="102"/>
-        <item x="6"/>
-        <item x="40"/>
-        <item x="68"/>
-        <item x="172"/>
-        <item x="110"/>
-        <item x="10"/>
-        <item x="128"/>
-        <item x="180"/>
-        <item x="96"/>
-        <item x="141"/>
-        <item x="21"/>
-        <item x="107"/>
-        <item x="162"/>
-        <item x="159"/>
-        <item x="15"/>
-        <item x="80"/>
-        <item x="37"/>
-        <item x="203"/>
-        <item x="45"/>
-        <item x="77"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="70"/>
-        <item x="189"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="163"/>
-        <item x="101"/>
-        <item x="0"/>
-        <item x="47"/>
-        <item x="144"/>
-        <item x="53"/>
-        <item x="117"/>
-        <item x="86"/>
-        <item x="97"/>
-        <item x="60"/>
-        <item x="175"/>
-        <item x="164"/>
-        <item x="22"/>
-        <item x="191"/>
-        <item x="229"/>
-        <item x="209"/>
-        <item x="222"/>
-        <item x="12"/>
-        <item x="146"/>
-        <item x="216"/>
-        <item x="176"/>
-        <item x="219"/>
-        <item x="63"/>
-        <item x="65"/>
-        <item x="132"/>
-        <item x="94"/>
-        <item x="196"/>
-        <item x="46"/>
-        <item x="59"/>
-        <item x="232"/>
-        <item x="76"/>
-        <item x="66"/>
-        <item x="214"/>
-        <item x="150"/>
-        <item x="194"/>
-        <item x="171"/>
-        <item x="195"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="136"/>
-        <item x="218"/>
-        <item x="230"/>
-        <item x="4"/>
-        <item x="197"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="169"/>
-        <item x="158"/>
-        <item x="112"/>
-        <item x="225"/>
-        <item x="56"/>
-        <item x="95"/>
-        <item x="33"/>
-        <item x="35"/>
-        <item x="168"/>
-        <item x="151"/>
-        <item x="106"/>
-        <item x="200"/>
-        <item x="155"/>
-        <item x="199"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="64"/>
-        <item x="201"/>
-        <item x="92"/>
-        <item x="242"/>
-        <item x="149"/>
-        <item x="29"/>
-        <item x="215"/>
-        <item x="241"/>
-        <item x="13"/>
-        <item x="42"/>
-        <item x="24"/>
-        <item x="167"/>
-        <item x="165"/>
-        <item x="62"/>
-        <item x="157"/>
-        <item x="75"/>
-        <item x="103"/>
-        <item x="115"/>
-        <item x="126"/>
-        <item x="108"/>
-        <item x="81"/>
-        <item x="174"/>
-        <item x="143"/>
-        <item x="43"/>
-        <item x="147"/>
-        <item x="125"/>
-        <item x="78"/>
-        <item x="18"/>
-        <item x="114"/>
-        <item x="79"/>
-        <item x="90"/>
-        <item x="98"/>
-        <item x="221"/>
-        <item x="207"/>
-        <item x="152"/>
-        <item x="83"/>
-        <item x="38"/>
-        <item x="41"/>
-        <item x="119"/>
-        <item x="69"/>
-        <item x="23"/>
-        <item x="84"/>
-        <item x="244"/>
-        <item x="71"/>
-        <item x="198"/>
-        <item x="133"/>
-        <item x="54"/>
-        <item x="91"/>
-        <item x="7"/>
-        <item x="154"/>
-        <item x="217"/>
-        <item x="228"/>
-        <item x="48"/>
-        <item x="204"/>
-        <item x="208"/>
-        <item x="99"/>
-        <item x="16"/>
-        <item x="73"/>
-        <item x="239"/>
-        <item x="142"/>
-        <item x="184"/>
-        <item x="233"/>
-        <item x="105"/>
-        <item x="129"/>
-        <item x="140"/>
-        <item x="234"/>
-        <item x="181"/>
-        <item x="131"/>
-        <item x="36"/>
-        <item x="127"/>
-        <item x="120"/>
-        <item x="134"/>
-        <item x="206"/>
-        <item x="161"/>
-        <item x="240"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="153"/>
-        <item x="185"/>
-        <item x="137"/>
-        <item x="82"/>
-        <item x="32"/>
-        <item x="139"/>
-        <item x="227"/>
-        <item x="124"/>
-        <item x="26"/>
-        <item x="170"/>
-        <item x="224"/>
-        <item x="52"/>
-        <item x="74"/>
-        <item x="202"/>
-        <item x="166"/>
-        <item x="111"/>
-        <item x="226"/>
-        <item x="109"/>
-        <item x="192"/>
-        <item x="67"/>
-        <item x="88"/>
-        <item x="243"/>
-        <item x="87"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="211"/>
-        <item x="187"/>
-        <item x="205"/>
-        <item x="57"/>
-        <item x="123"/>
-        <item x="182"/>
-        <item x="160"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="34"/>
-        <item x="231"/>
-        <item x="237"/>
-        <item x="93"/>
-        <item x="235"/>
-        <item x="61"/>
-        <item x="51"/>
-        <item x="213"/>
-        <item x="148"/>
-        <item x="156"/>
-        <item x="122"/>
-        <item x="193"/>
-        <item x="116"/>
-        <item x="223"/>
-        <item x="236"/>
-        <item x="186"/>
-        <item x="17"/>
-        <item x="183"/>
-        <item x="179"/>
-        <item x="145"/>
-        <item x="212"/>
-        <item x="89"/>
-        <item x="121"/>
-        <item x="113"/>
-        <item x="210"/>
-        <item x="238"/>
-        <item x="220"/>
-        <item x="138"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="104"/>
-        <item x="55"/>
-        <item x="190"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
         <item x="0"/>
@@ -5790,7 +5130,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DBF3ADE-87F3-A547-8DBA-4C617F41E730}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DBF3ADE-87F3-A547-8DBA-4C617F41E730}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="16" showAll="0">
@@ -6175,256 +5515,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="6" showAll="0">
-      <items count="246">
-        <item x="50"/>
-        <item x="85"/>
-        <item x="44"/>
-        <item x="39"/>
-        <item x="118"/>
-        <item x="25"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="31"/>
-        <item x="2"/>
-        <item x="49"/>
-        <item x="5"/>
-        <item x="102"/>
-        <item x="6"/>
-        <item x="40"/>
-        <item x="68"/>
-        <item x="172"/>
-        <item x="110"/>
-        <item x="10"/>
-        <item x="128"/>
-        <item x="180"/>
-        <item x="96"/>
-        <item x="141"/>
-        <item x="21"/>
-        <item x="107"/>
-        <item x="162"/>
-        <item x="159"/>
-        <item x="15"/>
-        <item x="80"/>
-        <item x="37"/>
-        <item x="203"/>
-        <item x="45"/>
-        <item x="77"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="70"/>
-        <item x="189"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="163"/>
-        <item x="101"/>
-        <item x="0"/>
-        <item x="47"/>
-        <item x="144"/>
-        <item x="53"/>
-        <item x="117"/>
-        <item x="86"/>
-        <item x="97"/>
-        <item x="60"/>
-        <item x="175"/>
-        <item x="164"/>
-        <item x="22"/>
-        <item x="191"/>
-        <item x="229"/>
-        <item x="209"/>
-        <item x="222"/>
-        <item x="12"/>
-        <item x="146"/>
-        <item x="216"/>
-        <item x="176"/>
-        <item x="219"/>
-        <item x="63"/>
-        <item x="65"/>
-        <item x="132"/>
-        <item x="94"/>
-        <item x="196"/>
-        <item x="46"/>
-        <item x="59"/>
-        <item x="232"/>
-        <item x="76"/>
-        <item x="66"/>
-        <item x="214"/>
-        <item x="150"/>
-        <item x="194"/>
-        <item x="171"/>
-        <item x="195"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="136"/>
-        <item x="218"/>
-        <item x="230"/>
-        <item x="4"/>
-        <item x="197"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="169"/>
-        <item x="158"/>
-        <item x="112"/>
-        <item x="225"/>
-        <item x="56"/>
-        <item x="95"/>
-        <item x="33"/>
-        <item x="35"/>
-        <item x="168"/>
-        <item x="151"/>
-        <item x="106"/>
-        <item x="200"/>
-        <item x="155"/>
-        <item x="199"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="64"/>
-        <item x="201"/>
-        <item x="92"/>
-        <item x="242"/>
-        <item x="149"/>
-        <item x="29"/>
-        <item x="215"/>
-        <item x="241"/>
-        <item x="13"/>
-        <item x="42"/>
-        <item x="24"/>
-        <item x="167"/>
-        <item x="165"/>
-        <item x="62"/>
-        <item x="157"/>
-        <item x="75"/>
-        <item x="103"/>
-        <item x="115"/>
-        <item x="126"/>
-        <item x="108"/>
-        <item x="81"/>
-        <item x="174"/>
-        <item x="143"/>
-        <item x="43"/>
-        <item x="147"/>
-        <item x="125"/>
-        <item x="78"/>
-        <item x="18"/>
-        <item x="114"/>
-        <item x="79"/>
-        <item x="90"/>
-        <item x="98"/>
-        <item x="221"/>
-        <item x="207"/>
-        <item x="152"/>
-        <item x="83"/>
-        <item x="38"/>
-        <item x="41"/>
-        <item x="119"/>
-        <item x="69"/>
-        <item x="23"/>
-        <item x="84"/>
-        <item x="244"/>
-        <item x="71"/>
-        <item x="198"/>
-        <item x="133"/>
-        <item x="54"/>
-        <item x="91"/>
-        <item x="7"/>
-        <item x="154"/>
-        <item x="217"/>
-        <item x="228"/>
-        <item x="48"/>
-        <item x="204"/>
-        <item x="208"/>
-        <item x="99"/>
-        <item x="16"/>
-        <item x="73"/>
-        <item x="239"/>
-        <item x="142"/>
-        <item x="184"/>
-        <item x="233"/>
-        <item x="105"/>
-        <item x="129"/>
-        <item x="140"/>
-        <item x="234"/>
-        <item x="181"/>
-        <item x="131"/>
-        <item x="36"/>
-        <item x="127"/>
-        <item x="120"/>
-        <item x="134"/>
-        <item x="206"/>
-        <item x="161"/>
-        <item x="240"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="153"/>
-        <item x="185"/>
-        <item x="137"/>
-        <item x="82"/>
-        <item x="32"/>
-        <item x="139"/>
-        <item x="227"/>
-        <item x="124"/>
-        <item x="26"/>
-        <item x="170"/>
-        <item x="224"/>
-        <item x="52"/>
-        <item x="74"/>
-        <item x="202"/>
-        <item x="166"/>
-        <item x="111"/>
-        <item x="226"/>
-        <item x="109"/>
-        <item x="192"/>
-        <item x="67"/>
-        <item x="88"/>
-        <item x="243"/>
-        <item x="87"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="211"/>
-        <item x="187"/>
-        <item x="205"/>
-        <item x="57"/>
-        <item x="123"/>
-        <item x="182"/>
-        <item x="160"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="34"/>
-        <item x="231"/>
-        <item x="237"/>
-        <item x="93"/>
-        <item x="235"/>
-        <item x="61"/>
-        <item x="51"/>
-        <item x="213"/>
-        <item x="148"/>
-        <item x="156"/>
-        <item x="122"/>
-        <item x="193"/>
-        <item x="116"/>
-        <item x="223"/>
-        <item x="236"/>
-        <item x="186"/>
-        <item x="17"/>
-        <item x="183"/>
-        <item x="179"/>
-        <item x="145"/>
-        <item x="212"/>
-        <item x="89"/>
-        <item x="121"/>
-        <item x="113"/>
-        <item x="210"/>
-        <item x="238"/>
-        <item x="220"/>
-        <item x="138"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="104"/>
-        <item x="55"/>
-        <item x="190"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
         <item x="0"/>
@@ -6481,7 +5572,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89317FBF-4A2A-884F-A38E-D1ACA7C41599}" name="PivotTable7" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89317FBF-4A2A-884F-A38E-D1ACA7C41599}" name="PivotTable7" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A47:N72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="16" showAll="0">
@@ -6877,256 +5968,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="6" showAll="0">
-      <items count="246">
-        <item x="50"/>
-        <item x="85"/>
-        <item x="44"/>
-        <item x="39"/>
-        <item x="118"/>
-        <item x="25"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="31"/>
-        <item x="2"/>
-        <item x="49"/>
-        <item x="5"/>
-        <item x="102"/>
-        <item x="6"/>
-        <item x="40"/>
-        <item x="68"/>
-        <item x="172"/>
-        <item x="110"/>
-        <item x="10"/>
-        <item x="128"/>
-        <item x="180"/>
-        <item x="96"/>
-        <item x="141"/>
-        <item x="21"/>
-        <item x="107"/>
-        <item x="162"/>
-        <item x="159"/>
-        <item x="15"/>
-        <item x="80"/>
-        <item x="37"/>
-        <item x="203"/>
-        <item x="45"/>
-        <item x="77"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="70"/>
-        <item x="189"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="163"/>
-        <item x="101"/>
-        <item x="0"/>
-        <item x="47"/>
-        <item x="144"/>
-        <item x="53"/>
-        <item x="117"/>
-        <item x="86"/>
-        <item x="97"/>
-        <item x="60"/>
-        <item x="175"/>
-        <item x="164"/>
-        <item x="22"/>
-        <item x="191"/>
-        <item x="229"/>
-        <item x="209"/>
-        <item x="222"/>
-        <item x="12"/>
-        <item x="146"/>
-        <item x="216"/>
-        <item x="176"/>
-        <item x="219"/>
-        <item x="63"/>
-        <item x="65"/>
-        <item x="132"/>
-        <item x="94"/>
-        <item x="196"/>
-        <item x="46"/>
-        <item x="59"/>
-        <item x="232"/>
-        <item x="76"/>
-        <item x="66"/>
-        <item x="214"/>
-        <item x="150"/>
-        <item x="194"/>
-        <item x="171"/>
-        <item x="195"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="136"/>
-        <item x="218"/>
-        <item x="230"/>
-        <item x="4"/>
-        <item x="197"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="169"/>
-        <item x="158"/>
-        <item x="112"/>
-        <item x="225"/>
-        <item x="56"/>
-        <item x="95"/>
-        <item x="33"/>
-        <item x="35"/>
-        <item x="168"/>
-        <item x="151"/>
-        <item x="106"/>
-        <item x="200"/>
-        <item x="155"/>
-        <item x="199"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="64"/>
-        <item x="201"/>
-        <item x="92"/>
-        <item x="242"/>
-        <item x="149"/>
-        <item x="29"/>
-        <item x="215"/>
-        <item x="241"/>
-        <item x="13"/>
-        <item x="42"/>
-        <item x="24"/>
-        <item x="167"/>
-        <item x="165"/>
-        <item x="62"/>
-        <item x="157"/>
-        <item x="75"/>
-        <item x="103"/>
-        <item x="115"/>
-        <item x="126"/>
-        <item x="108"/>
-        <item x="81"/>
-        <item x="174"/>
-        <item x="143"/>
-        <item x="43"/>
-        <item x="147"/>
-        <item x="125"/>
-        <item x="78"/>
-        <item x="18"/>
-        <item x="114"/>
-        <item x="79"/>
-        <item x="90"/>
-        <item x="98"/>
-        <item x="221"/>
-        <item x="207"/>
-        <item x="152"/>
-        <item x="83"/>
-        <item x="38"/>
-        <item x="41"/>
-        <item x="119"/>
-        <item x="69"/>
-        <item x="23"/>
-        <item x="84"/>
-        <item x="244"/>
-        <item x="71"/>
-        <item x="198"/>
-        <item x="133"/>
-        <item x="54"/>
-        <item x="91"/>
-        <item x="7"/>
-        <item x="154"/>
-        <item x="217"/>
-        <item x="228"/>
-        <item x="48"/>
-        <item x="204"/>
-        <item x="208"/>
-        <item x="99"/>
-        <item x="16"/>
-        <item x="73"/>
-        <item x="239"/>
-        <item x="142"/>
-        <item x="184"/>
-        <item x="233"/>
-        <item x="105"/>
-        <item x="129"/>
-        <item x="140"/>
-        <item x="234"/>
-        <item x="181"/>
-        <item x="131"/>
-        <item x="36"/>
-        <item x="127"/>
-        <item x="120"/>
-        <item x="134"/>
-        <item x="206"/>
-        <item x="161"/>
-        <item x="240"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="153"/>
-        <item x="185"/>
-        <item x="137"/>
-        <item x="82"/>
-        <item x="32"/>
-        <item x="139"/>
-        <item x="227"/>
-        <item x="124"/>
-        <item x="26"/>
-        <item x="170"/>
-        <item x="224"/>
-        <item x="52"/>
-        <item x="74"/>
-        <item x="202"/>
-        <item x="166"/>
-        <item x="111"/>
-        <item x="226"/>
-        <item x="109"/>
-        <item x="192"/>
-        <item x="67"/>
-        <item x="88"/>
-        <item x="243"/>
-        <item x="87"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="211"/>
-        <item x="187"/>
-        <item x="205"/>
-        <item x="57"/>
-        <item x="123"/>
-        <item x="182"/>
-        <item x="160"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="34"/>
-        <item x="231"/>
-        <item x="237"/>
-        <item x="93"/>
-        <item x="235"/>
-        <item x="61"/>
-        <item x="51"/>
-        <item x="213"/>
-        <item x="148"/>
-        <item x="156"/>
-        <item x="122"/>
-        <item x="193"/>
-        <item x="116"/>
-        <item x="223"/>
-        <item x="236"/>
-        <item x="186"/>
-        <item x="17"/>
-        <item x="183"/>
-        <item x="179"/>
-        <item x="145"/>
-        <item x="212"/>
-        <item x="89"/>
-        <item x="121"/>
-        <item x="113"/>
-        <item x="210"/>
-        <item x="238"/>
-        <item x="220"/>
-        <item x="138"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="104"/>
-        <item x="55"/>
-        <item x="190"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
       <items count="14">
         <item sd="0" x="0"/>
@@ -7284,7 +6126,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{522DED6B-966A-0D4B-A1E2-85AE83412C66}" name="PivotTable5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{522DED6B-966A-0D4B-A1E2-85AE83412C66}" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C23:AA38" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="16" showAll="0">
@@ -7680,256 +6522,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="6" showAll="0">
-      <items count="246">
-        <item x="50"/>
-        <item x="85"/>
-        <item x="44"/>
-        <item x="39"/>
-        <item x="118"/>
-        <item x="25"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="31"/>
-        <item x="2"/>
-        <item x="49"/>
-        <item x="5"/>
-        <item x="102"/>
-        <item x="6"/>
-        <item x="40"/>
-        <item x="68"/>
-        <item x="172"/>
-        <item x="110"/>
-        <item x="10"/>
-        <item x="128"/>
-        <item x="180"/>
-        <item x="96"/>
-        <item x="141"/>
-        <item x="21"/>
-        <item x="107"/>
-        <item x="162"/>
-        <item x="159"/>
-        <item x="15"/>
-        <item x="80"/>
-        <item x="37"/>
-        <item x="203"/>
-        <item x="45"/>
-        <item x="77"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="70"/>
-        <item x="189"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="163"/>
-        <item x="101"/>
-        <item x="0"/>
-        <item x="47"/>
-        <item x="144"/>
-        <item x="53"/>
-        <item x="117"/>
-        <item x="86"/>
-        <item x="97"/>
-        <item x="60"/>
-        <item x="175"/>
-        <item x="164"/>
-        <item x="22"/>
-        <item x="191"/>
-        <item x="229"/>
-        <item x="209"/>
-        <item x="222"/>
-        <item x="12"/>
-        <item x="146"/>
-        <item x="216"/>
-        <item x="176"/>
-        <item x="219"/>
-        <item x="63"/>
-        <item x="65"/>
-        <item x="132"/>
-        <item x="94"/>
-        <item x="196"/>
-        <item x="46"/>
-        <item x="59"/>
-        <item x="232"/>
-        <item x="76"/>
-        <item x="66"/>
-        <item x="214"/>
-        <item x="150"/>
-        <item x="194"/>
-        <item x="171"/>
-        <item x="195"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="136"/>
-        <item x="218"/>
-        <item x="230"/>
-        <item x="4"/>
-        <item x="197"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="169"/>
-        <item x="158"/>
-        <item x="112"/>
-        <item x="225"/>
-        <item x="56"/>
-        <item x="95"/>
-        <item x="33"/>
-        <item x="35"/>
-        <item x="168"/>
-        <item x="151"/>
-        <item x="106"/>
-        <item x="200"/>
-        <item x="155"/>
-        <item x="199"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="64"/>
-        <item x="201"/>
-        <item x="92"/>
-        <item x="242"/>
-        <item x="149"/>
-        <item x="29"/>
-        <item x="215"/>
-        <item x="241"/>
-        <item x="13"/>
-        <item x="42"/>
-        <item x="24"/>
-        <item x="167"/>
-        <item x="165"/>
-        <item x="62"/>
-        <item x="157"/>
-        <item x="75"/>
-        <item x="103"/>
-        <item x="115"/>
-        <item x="126"/>
-        <item x="108"/>
-        <item x="81"/>
-        <item x="174"/>
-        <item x="143"/>
-        <item x="43"/>
-        <item x="147"/>
-        <item x="125"/>
-        <item x="78"/>
-        <item x="18"/>
-        <item x="114"/>
-        <item x="79"/>
-        <item x="90"/>
-        <item x="98"/>
-        <item x="221"/>
-        <item x="207"/>
-        <item x="152"/>
-        <item x="83"/>
-        <item x="38"/>
-        <item x="41"/>
-        <item x="119"/>
-        <item x="69"/>
-        <item x="23"/>
-        <item x="84"/>
-        <item x="244"/>
-        <item x="71"/>
-        <item x="198"/>
-        <item x="133"/>
-        <item x="54"/>
-        <item x="91"/>
-        <item x="7"/>
-        <item x="154"/>
-        <item x="217"/>
-        <item x="228"/>
-        <item x="48"/>
-        <item x="204"/>
-        <item x="208"/>
-        <item x="99"/>
-        <item x="16"/>
-        <item x="73"/>
-        <item x="239"/>
-        <item x="142"/>
-        <item x="184"/>
-        <item x="233"/>
-        <item x="105"/>
-        <item x="129"/>
-        <item x="140"/>
-        <item x="234"/>
-        <item x="181"/>
-        <item x="131"/>
-        <item x="36"/>
-        <item x="127"/>
-        <item x="120"/>
-        <item x="134"/>
-        <item x="206"/>
-        <item x="161"/>
-        <item x="240"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="153"/>
-        <item x="185"/>
-        <item x="137"/>
-        <item x="82"/>
-        <item x="32"/>
-        <item x="139"/>
-        <item x="227"/>
-        <item x="124"/>
-        <item x="26"/>
-        <item x="170"/>
-        <item x="224"/>
-        <item x="52"/>
-        <item x="74"/>
-        <item x="202"/>
-        <item x="166"/>
-        <item x="111"/>
-        <item x="226"/>
-        <item x="109"/>
-        <item x="192"/>
-        <item x="67"/>
-        <item x="88"/>
-        <item x="243"/>
-        <item x="87"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="211"/>
-        <item x="187"/>
-        <item x="205"/>
-        <item x="57"/>
-        <item x="123"/>
-        <item x="182"/>
-        <item x="160"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="34"/>
-        <item x="231"/>
-        <item x="237"/>
-        <item x="93"/>
-        <item x="235"/>
-        <item x="61"/>
-        <item x="51"/>
-        <item x="213"/>
-        <item x="148"/>
-        <item x="156"/>
-        <item x="122"/>
-        <item x="193"/>
-        <item x="116"/>
-        <item x="223"/>
-        <item x="236"/>
-        <item x="186"/>
-        <item x="17"/>
-        <item x="183"/>
-        <item x="179"/>
-        <item x="145"/>
-        <item x="212"/>
-        <item x="89"/>
-        <item x="121"/>
-        <item x="113"/>
-        <item x="210"/>
-        <item x="238"/>
-        <item x="220"/>
-        <item x="138"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="104"/>
-        <item x="55"/>
-        <item x="190"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="14">
         <item sd="0" x="0"/>
@@ -8090,7 +6683,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B804B1A-CD05-6E48-A06F-53B790EF948D}" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B804B1A-CD05-6E48-A06F-53B790EF948D}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="16" showAll="0">
@@ -8479,256 +7072,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="6" showAll="0">
-      <items count="246">
-        <item x="50"/>
-        <item x="85"/>
-        <item x="44"/>
-        <item x="39"/>
-        <item x="118"/>
-        <item x="25"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="31"/>
-        <item x="2"/>
-        <item x="49"/>
-        <item x="5"/>
-        <item x="102"/>
-        <item x="6"/>
-        <item x="40"/>
-        <item x="68"/>
-        <item x="172"/>
-        <item x="110"/>
-        <item x="10"/>
-        <item x="128"/>
-        <item x="180"/>
-        <item x="96"/>
-        <item x="141"/>
-        <item x="21"/>
-        <item x="107"/>
-        <item x="162"/>
-        <item x="159"/>
-        <item x="15"/>
-        <item x="80"/>
-        <item x="37"/>
-        <item x="203"/>
-        <item x="45"/>
-        <item x="77"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="70"/>
-        <item x="189"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="163"/>
-        <item x="101"/>
-        <item x="0"/>
-        <item x="47"/>
-        <item x="144"/>
-        <item x="53"/>
-        <item x="117"/>
-        <item x="86"/>
-        <item x="97"/>
-        <item x="60"/>
-        <item x="175"/>
-        <item x="164"/>
-        <item x="22"/>
-        <item x="191"/>
-        <item x="229"/>
-        <item x="209"/>
-        <item x="222"/>
-        <item x="12"/>
-        <item x="146"/>
-        <item x="216"/>
-        <item x="176"/>
-        <item x="219"/>
-        <item x="63"/>
-        <item x="65"/>
-        <item x="132"/>
-        <item x="94"/>
-        <item x="196"/>
-        <item x="46"/>
-        <item x="59"/>
-        <item x="232"/>
-        <item x="76"/>
-        <item x="66"/>
-        <item x="214"/>
-        <item x="150"/>
-        <item x="194"/>
-        <item x="171"/>
-        <item x="195"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="136"/>
-        <item x="218"/>
-        <item x="230"/>
-        <item x="4"/>
-        <item x="197"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="169"/>
-        <item x="158"/>
-        <item x="112"/>
-        <item x="225"/>
-        <item x="56"/>
-        <item x="95"/>
-        <item x="33"/>
-        <item x="35"/>
-        <item x="168"/>
-        <item x="151"/>
-        <item x="106"/>
-        <item x="200"/>
-        <item x="155"/>
-        <item x="199"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="64"/>
-        <item x="201"/>
-        <item x="92"/>
-        <item x="242"/>
-        <item x="149"/>
-        <item x="29"/>
-        <item x="215"/>
-        <item x="241"/>
-        <item x="13"/>
-        <item x="42"/>
-        <item x="24"/>
-        <item x="167"/>
-        <item x="165"/>
-        <item x="62"/>
-        <item x="157"/>
-        <item x="75"/>
-        <item x="103"/>
-        <item x="115"/>
-        <item x="126"/>
-        <item x="108"/>
-        <item x="81"/>
-        <item x="174"/>
-        <item x="143"/>
-        <item x="43"/>
-        <item x="147"/>
-        <item x="125"/>
-        <item x="78"/>
-        <item x="18"/>
-        <item x="114"/>
-        <item x="79"/>
-        <item x="90"/>
-        <item x="98"/>
-        <item x="221"/>
-        <item x="207"/>
-        <item x="152"/>
-        <item x="83"/>
-        <item x="38"/>
-        <item x="41"/>
-        <item x="119"/>
-        <item x="69"/>
-        <item x="23"/>
-        <item x="84"/>
-        <item x="244"/>
-        <item x="71"/>
-        <item x="198"/>
-        <item x="133"/>
-        <item x="54"/>
-        <item x="91"/>
-        <item x="7"/>
-        <item x="154"/>
-        <item x="217"/>
-        <item x="228"/>
-        <item x="48"/>
-        <item x="204"/>
-        <item x="208"/>
-        <item x="99"/>
-        <item x="16"/>
-        <item x="73"/>
-        <item x="239"/>
-        <item x="142"/>
-        <item x="184"/>
-        <item x="233"/>
-        <item x="105"/>
-        <item x="129"/>
-        <item x="140"/>
-        <item x="234"/>
-        <item x="181"/>
-        <item x="131"/>
-        <item x="36"/>
-        <item x="127"/>
-        <item x="120"/>
-        <item x="134"/>
-        <item x="206"/>
-        <item x="161"/>
-        <item x="240"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="153"/>
-        <item x="185"/>
-        <item x="137"/>
-        <item x="82"/>
-        <item x="32"/>
-        <item x="139"/>
-        <item x="227"/>
-        <item x="124"/>
-        <item x="26"/>
-        <item x="170"/>
-        <item x="224"/>
-        <item x="52"/>
-        <item x="74"/>
-        <item x="202"/>
-        <item x="166"/>
-        <item x="111"/>
-        <item x="226"/>
-        <item x="109"/>
-        <item x="192"/>
-        <item x="67"/>
-        <item x="88"/>
-        <item x="243"/>
-        <item x="87"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="211"/>
-        <item x="187"/>
-        <item x="205"/>
-        <item x="57"/>
-        <item x="123"/>
-        <item x="182"/>
-        <item x="160"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="34"/>
-        <item x="231"/>
-        <item x="237"/>
-        <item x="93"/>
-        <item x="235"/>
-        <item x="61"/>
-        <item x="51"/>
-        <item x="213"/>
-        <item x="148"/>
-        <item x="156"/>
-        <item x="122"/>
-        <item x="193"/>
-        <item x="116"/>
-        <item x="223"/>
-        <item x="236"/>
-        <item x="186"/>
-        <item x="17"/>
-        <item x="183"/>
-        <item x="179"/>
-        <item x="145"/>
-        <item x="212"/>
-        <item x="89"/>
-        <item x="121"/>
-        <item x="113"/>
-        <item x="210"/>
-        <item x="238"/>
-        <item x="220"/>
-        <item x="138"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="104"/>
-        <item x="55"/>
-        <item x="190"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="15">
         <item sd="0" x="0"/>
@@ -8838,7 +7182,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{617D7AB6-4FF7-A241-9A47-61B8C4743D5E}" name="PivotTable8" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{617D7AB6-4FF7-A241-9A47-61B8C4743D5E}" name="PivotTable8" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="16" showAll="0">
@@ -9234,272 +7578,23 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="6" showAll="0">
-      <items count="246">
-        <item x="50"/>
-        <item x="85"/>
-        <item x="44"/>
-        <item x="39"/>
-        <item x="118"/>
-        <item x="25"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="31"/>
-        <item x="2"/>
-        <item x="49"/>
-        <item x="5"/>
-        <item x="102"/>
-        <item x="6"/>
-        <item x="40"/>
-        <item x="68"/>
-        <item x="172"/>
-        <item x="110"/>
-        <item x="10"/>
-        <item x="128"/>
-        <item x="180"/>
-        <item x="96"/>
-        <item x="141"/>
-        <item x="21"/>
-        <item x="107"/>
-        <item x="162"/>
-        <item x="159"/>
-        <item x="15"/>
-        <item x="80"/>
-        <item x="37"/>
-        <item x="203"/>
-        <item x="45"/>
-        <item x="77"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="70"/>
-        <item x="189"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="163"/>
-        <item x="101"/>
-        <item x="0"/>
-        <item x="47"/>
-        <item x="144"/>
-        <item x="53"/>
-        <item x="117"/>
-        <item x="86"/>
-        <item x="97"/>
-        <item x="60"/>
-        <item x="175"/>
-        <item x="164"/>
-        <item x="22"/>
-        <item x="191"/>
-        <item x="229"/>
-        <item x="209"/>
-        <item x="222"/>
-        <item x="12"/>
-        <item x="146"/>
-        <item x="216"/>
-        <item x="176"/>
-        <item x="219"/>
-        <item x="63"/>
-        <item x="65"/>
-        <item x="132"/>
-        <item x="94"/>
-        <item x="196"/>
-        <item x="46"/>
-        <item x="59"/>
-        <item x="232"/>
-        <item x="76"/>
-        <item x="66"/>
-        <item x="214"/>
-        <item x="150"/>
-        <item x="194"/>
-        <item x="171"/>
-        <item x="195"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="136"/>
-        <item x="218"/>
-        <item x="230"/>
-        <item x="4"/>
-        <item x="197"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="169"/>
-        <item x="158"/>
-        <item x="112"/>
-        <item x="225"/>
-        <item x="56"/>
-        <item x="95"/>
-        <item x="33"/>
-        <item x="35"/>
-        <item x="168"/>
-        <item x="151"/>
-        <item x="106"/>
-        <item x="200"/>
-        <item x="155"/>
-        <item x="199"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="64"/>
-        <item x="201"/>
-        <item x="92"/>
-        <item x="242"/>
-        <item x="149"/>
-        <item x="29"/>
-        <item x="215"/>
-        <item x="241"/>
-        <item x="13"/>
-        <item x="42"/>
-        <item x="24"/>
-        <item x="167"/>
-        <item x="165"/>
-        <item x="62"/>
-        <item x="157"/>
-        <item x="75"/>
-        <item x="103"/>
-        <item x="115"/>
-        <item x="126"/>
-        <item x="108"/>
-        <item x="81"/>
-        <item x="174"/>
-        <item x="143"/>
-        <item x="43"/>
-        <item x="147"/>
-        <item x="125"/>
-        <item x="78"/>
-        <item x="18"/>
-        <item x="114"/>
-        <item x="79"/>
-        <item x="90"/>
-        <item x="98"/>
-        <item x="221"/>
-        <item x="207"/>
-        <item x="152"/>
-        <item x="83"/>
-        <item x="38"/>
-        <item x="41"/>
-        <item x="119"/>
-        <item x="69"/>
-        <item x="23"/>
-        <item x="84"/>
-        <item x="244"/>
-        <item x="71"/>
-        <item x="198"/>
-        <item x="133"/>
-        <item x="54"/>
-        <item x="91"/>
-        <item x="7"/>
-        <item x="154"/>
-        <item x="217"/>
-        <item x="228"/>
-        <item x="48"/>
-        <item x="204"/>
-        <item x="208"/>
-        <item x="99"/>
-        <item x="16"/>
-        <item x="73"/>
-        <item x="239"/>
-        <item x="142"/>
-        <item x="184"/>
-        <item x="233"/>
-        <item x="105"/>
-        <item x="129"/>
-        <item x="140"/>
-        <item x="234"/>
-        <item x="181"/>
-        <item x="131"/>
-        <item x="36"/>
-        <item x="127"/>
-        <item x="120"/>
-        <item x="134"/>
-        <item x="206"/>
-        <item x="161"/>
-        <item x="240"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="153"/>
-        <item x="185"/>
-        <item x="137"/>
-        <item x="82"/>
-        <item x="32"/>
-        <item x="139"/>
-        <item x="227"/>
-        <item x="124"/>
-        <item x="26"/>
-        <item x="170"/>
-        <item x="224"/>
-        <item x="52"/>
-        <item x="74"/>
-        <item x="202"/>
-        <item x="166"/>
-        <item x="111"/>
-        <item x="226"/>
-        <item x="109"/>
-        <item x="192"/>
-        <item x="67"/>
-        <item x="88"/>
-        <item x="243"/>
-        <item x="87"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="211"/>
-        <item x="187"/>
-        <item x="205"/>
-        <item x="57"/>
-        <item x="123"/>
-        <item x="182"/>
-        <item x="160"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="34"/>
-        <item x="231"/>
-        <item x="237"/>
-        <item x="93"/>
-        <item x="235"/>
-        <item x="61"/>
-        <item x="51"/>
-        <item x="213"/>
-        <item x="148"/>
-        <item x="156"/>
-        <item x="122"/>
-        <item x="193"/>
-        <item x="116"/>
-        <item x="223"/>
-        <item x="236"/>
-        <item x="186"/>
-        <item x="17"/>
-        <item x="183"/>
-        <item x="179"/>
-        <item x="145"/>
-        <item x="212"/>
-        <item x="89"/>
-        <item x="121"/>
-        <item x="113"/>
-        <item x="210"/>
-        <item x="238"/>
-        <item x="220"/>
-        <item x="138"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="104"/>
-        <item x="55"/>
-        <item x="190"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
       <items count="14">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -9578,17 +7673,17 @@
         <i x="1" s="1"/>
         <i x="2" s="1"/>
         <i x="3" s="1"/>
-        <i x="4"/>
-        <i x="5"/>
-        <i x="6"/>
-        <i x="7"/>
-        <i x="8"/>
-        <i x="9"/>
-        <i x="10"/>
-        <i x="11"/>
-        <i x="12"/>
-        <i x="0" nd="1"/>
-        <i x="13" nd="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+        <i x="12" s="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -9909,17 +8004,34 @@
 </a:theme>
 </file>
 
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Date" xr10:uid="{1EDDD365-2800-AF44-91D6-8A963A88438B}" sourceName="Date">
+  <pivotTables>
+    <pivotTable tabId="5" name="PivotTable8"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="808012479" filterType="unknown">
+    <bounds startDate="2018-01-01T00:00:00" endDate="2020-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Date" xr10:uid="{21F14312-5DDE-314B-AAAC-BDFEFCDD0D18}" cache="NativeTimeline_Date" caption="Date" level="2" selectionLevel="2" scrollPosition="2019-02-14T00:00:00"/>
+</timelines>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4509F69-9128-A24E-8E1E-BB30235335E5}">
   <dimension ref="B3:K485"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C450" sqref="C450"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="87.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="62.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -10175,7 +8287,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>43114</v>
       </c>
@@ -10188,8 +8300,11 @@
       <c r="E17" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>43116</v>
       </c>
@@ -10203,7 +8318,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>43116</v>
       </c>
@@ -10217,7 +8332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>43118</v>
       </c>
@@ -10230,8 +8345,11 @@
       <c r="E20" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>43118</v>
       </c>
@@ -10245,7 +8363,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>43119</v>
       </c>
@@ -10259,7 +8377,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>43121</v>
       </c>
@@ -10273,7 +8391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>43122</v>
       </c>
@@ -10287,7 +8405,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>43122</v>
       </c>
@@ -10301,7 +8419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>43124</v>
       </c>
@@ -10315,7 +8433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>43125</v>
       </c>
@@ -10329,7 +8447,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>43127</v>
       </c>
@@ -10343,7 +8461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>43128</v>
       </c>
@@ -10357,7 +8475,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>43129</v>
       </c>
@@ -10371,7 +8489,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>43131</v>
       </c>
@@ -10385,7 +8503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>43131</v>
       </c>
@@ -16753,7 +14871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D30372-CF30-594B-BFB7-3D5539E58A39}">
   <dimension ref="A3:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -17085,16 +15203,39 @@
   <dimension ref="A3:AA72"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="338" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="338" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -19490,30 +17631,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97640D1B-C461-B04E-B7C3-DDDC8529EDA5}">
-  <dimension ref="A2:P9"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -19561,26 +17704,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D6" s="3">
+        <v>609</v>
+      </c>
       <c r="E6" s="3">
-        <v>315</v>
+        <v>882</v>
       </c>
       <c r="F6" s="3">
-        <v>2793</v>
+        <v>8722</v>
       </c>
       <c r="G6" s="3">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="H6" s="3">
-        <v>161</v>
+        <v>4863</v>
       </c>
       <c r="I6" s="3">
-        <v>3369</v>
+        <v>15444</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -19588,28 +17733,28 @@
         <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>680</v>
+        <v>1574</v>
       </c>
       <c r="C7" s="3">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="D7" s="3">
-        <v>322</v>
+        <v>1923</v>
       </c>
       <c r="E7" s="3">
-        <v>235</v>
+        <v>822</v>
       </c>
       <c r="F7" s="3">
-        <v>2684</v>
+        <v>13734</v>
       </c>
       <c r="G7" s="3">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3">
-        <v>745</v>
+        <v>9881</v>
       </c>
       <c r="I7" s="3">
-        <v>4757</v>
+        <v>28160</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -19617,26 +17762,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>105</v>
+        <v>309</v>
       </c>
       <c r="C8" s="3">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="D8" s="3">
-        <v>142</v>
+        <v>3207</v>
       </c>
       <c r="E8" s="3">
-        <v>190</v>
+        <v>488</v>
       </c>
       <c r="F8" s="3">
-        <v>1838</v>
+        <v>10213</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <v>1613</v>
+        <v>11937</v>
       </c>
       <c r="I8" s="3">
-        <v>3936</v>
+        <v>26373</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -19644,28 +17789,38 @@
         <v>40</v>
       </c>
       <c r="B9" s="3">
-        <v>805</v>
+        <v>1991</v>
       </c>
       <c r="C9" s="3">
-        <v>143</v>
+        <v>456</v>
       </c>
       <c r="D9" s="3">
-        <v>464</v>
+        <v>5739</v>
       </c>
       <c r="E9" s="3">
-        <v>740</v>
+        <v>2192</v>
       </c>
       <c r="F9" s="3">
-        <v>7315</v>
+        <v>32669</v>
       </c>
       <c r="G9" s="3">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="H9" s="3">
-        <v>2519</v>
+        <v>26681</v>
       </c>
       <c r="I9" s="3">
-        <v>12062</v>
+        <v>69977</v>
+      </c>
+    </row>
+    <row r="20" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -19677,6 +17832,11 @@
         <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId4"/>
+      </x15:timelineRefs>
+    </ext>
   </extLst>
 </worksheet>
 </file>